--- a/LATravelManager.UI/Sources/protypo_leoforeia.xlsx
+++ b/LATravelManager.UI/Sources/protypo_leoforeia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>α/α</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Παρατηρήσεις</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Ημ. Γεν</t>
   </si>
 </sst>
 </file>
@@ -66,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,11 +95,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -118,6 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -398,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +434,7 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -426,7 +444,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -437,7 +455,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -461,6 +479,12 @@
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/LATravelManager.UI/Sources/protypo_leoforeia.xlsx
+++ b/LATravelManager.UI/Sources/protypo_leoforeia.xlsx
@@ -30,9 +30,6 @@
     <t>Επίθετο</t>
   </si>
   <si>
-    <t>Ξενοδοχείο/ Τύπος Δωμ</t>
-  </si>
-  <si>
     <t>Αναχώρηση</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Ημ. Γεν</t>
+  </si>
+  <si>
+    <t>Ξενοδοχείο</t>
   </si>
 </sst>
 </file>
@@ -113,9 +113,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -126,6 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -135,7 +133,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -418,19 +418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,14 +453,14 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -468,23 +468,23 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/LATravelManager.UI/Sources/protypo_leoforeia.xlsx
+++ b/LATravelManager.UI/Sources/protypo_leoforeia.xlsx
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -124,17 +124,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +413,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,24 +429,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -468,7 +462,7 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -488,10 +482,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.55000000000000004" right="0.55000000000000004" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>

--- a/LATravelManager.UI/Sources/protypo_leoforeia.xlsx
+++ b/LATravelManager.UI/Sources/protypo_leoforeia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>α/α</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>Παρατηρήσεις</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Ημ. Γεν</t>
   </si>
   <si>
     <t>Ξενοδοχείο</t>
@@ -72,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,22 +89,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -123,7 +106,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -410,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,28 +410,28 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -462,8 +444,8 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -473,12 +455,6 @@
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
